--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.058936</v>
+        <v>0.05970899999999999</v>
       </c>
       <c r="H2">
-        <v>0.176808</v>
+        <v>0.179127</v>
       </c>
       <c r="I2">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="J2">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8328803333333333</v>
+        <v>8.521337333333333</v>
       </c>
       <c r="N2">
-        <v>2.498641</v>
+        <v>25.564012</v>
       </c>
       <c r="O2">
-        <v>0.03917234793046613</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="P2">
-        <v>0.03917234793046614</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="Q2">
-        <v>0.04908663532533333</v>
+        <v>0.508800530836</v>
       </c>
       <c r="R2">
-        <v>0.441779717928</v>
+        <v>4.579204777523999</v>
       </c>
       <c r="S2">
-        <v>0.0001426147526847473</v>
+        <v>0.001085616417829102</v>
       </c>
       <c r="T2">
-        <v>0.0001426147526847474</v>
+        <v>0.001085616417829102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.058936</v>
+        <v>0.05970899999999999</v>
       </c>
       <c r="H3">
-        <v>0.176808</v>
+        <v>0.179127</v>
       </c>
       <c r="I3">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="J3">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.620227</v>
       </c>
       <c r="O3">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="P3">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="Q3">
-        <v>0.287219232824</v>
+        <v>0.2909863779809999</v>
       </c>
       <c r="R3">
-        <v>2.584973095416</v>
+        <v>2.618877401829</v>
       </c>
       <c r="S3">
-        <v>0.0008344776451678596</v>
+        <v>0.0006208711865566453</v>
       </c>
       <c r="T3">
-        <v>0.0008344776451678597</v>
+        <v>0.0006208711865566455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.058936</v>
+        <v>0.05970899999999999</v>
       </c>
       <c r="H4">
-        <v>0.176808</v>
+        <v>0.179127</v>
       </c>
       <c r="I4">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="J4">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.66696899999999</v>
       </c>
       <c r="O4">
-        <v>0.7316196070296921</v>
+        <v>0.5373208971370899</v>
       </c>
       <c r="P4">
-        <v>0.7316196070296922</v>
+        <v>0.53732089713709</v>
       </c>
       <c r="Q4">
-        <v>0.9167881616613331</v>
+        <v>0.9288126840069998</v>
       </c>
       <c r="R4">
-        <v>8.251093454951999</v>
+        <v>8.359314156062998</v>
       </c>
       <c r="S4">
-        <v>0.002663607233885048</v>
+        <v>0.001981787041749227</v>
       </c>
       <c r="T4">
-        <v>0.002663607233885049</v>
+        <v>0.001981787041749228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>42.983926</v>
       </c>
       <c r="I5">
-        <v>0.8850932285803734</v>
+        <v>0.8850509663933519</v>
       </c>
       <c r="J5">
-        <v>0.8850932285803733</v>
+        <v>0.885050966393352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8328803333333333</v>
+        <v>8.521337333333333</v>
       </c>
       <c r="N5">
-        <v>2.498641</v>
+        <v>25.564012</v>
       </c>
       <c r="O5">
-        <v>0.03917234793046613</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="P5">
-        <v>0.03917234793046614</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="Q5">
-        <v>11.93348887161845</v>
+        <v>122.0935111190124</v>
       </c>
       <c r="R5">
-        <v>107.401399844566</v>
+        <v>1098.841600071112</v>
       </c>
       <c r="S5">
-        <v>0.03467117990084997</v>
+        <v>0.2605082191314051</v>
       </c>
       <c r="T5">
-        <v>0.03467117990084998</v>
+        <v>0.2605082191314052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>42.983926</v>
       </c>
       <c r="I6">
-        <v>0.8850932285803734</v>
+        <v>0.8850509663933519</v>
       </c>
       <c r="J6">
-        <v>0.8850932285803733</v>
+        <v>0.885050966393352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>14.620227</v>
       </c>
       <c r="O6">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="P6">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="Q6">
         <v>69.82608394124466</v>
       </c>
       <c r="R6">
-        <v>628.434755471202</v>
+        <v>628.4347554712019</v>
       </c>
       <c r="S6">
-        <v>0.2028704886009091</v>
+        <v>0.1489863679874225</v>
       </c>
       <c r="T6">
-        <v>0.2028704886009091</v>
+        <v>0.1489863679874226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>42.983926</v>
       </c>
       <c r="I7">
-        <v>0.8850932285803734</v>
+        <v>0.8850509663933519</v>
       </c>
       <c r="J7">
-        <v>0.8850932285803733</v>
+        <v>0.885050966393352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.66696899999999</v>
       </c>
       <c r="O7">
-        <v>0.7316196070296921</v>
+        <v>0.5373208971370899</v>
       </c>
       <c r="P7">
-        <v>0.7316196070296922</v>
+        <v>0.53732089713709</v>
       </c>
       <c r="Q7">
         <v>222.8810602378104</v>
@@ -880,10 +880,10 @@
         <v>2005.929542140294</v>
       </c>
       <c r="S7">
-        <v>0.6475515600786143</v>
+        <v>0.4755563792745242</v>
       </c>
       <c r="T7">
-        <v>0.6475515600786143</v>
+        <v>0.4755563792745244</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.403558</v>
       </c>
       <c r="I8">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="J8">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8328803333333333</v>
+        <v>8.521337333333333</v>
       </c>
       <c r="N8">
-        <v>2.498641</v>
+        <v>25.564012</v>
       </c>
       <c r="O8">
-        <v>0.03917234793046613</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="P8">
-        <v>0.03917234793046614</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="Q8">
-        <v>1.500172396075333</v>
+        <v>15.34851350607734</v>
       </c>
       <c r="R8">
-        <v>13.501551564678</v>
+        <v>138.136621554696</v>
       </c>
       <c r="S8">
-        <v>0.004358553276931407</v>
+        <v>0.03274878315101458</v>
       </c>
       <c r="T8">
-        <v>0.004358553276931407</v>
+        <v>0.03274878315101459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.403558</v>
       </c>
       <c r="I9">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="J9">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>14.620227</v>
       </c>
       <c r="O9">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="P9">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="Q9">
         <v>8.777916063074001</v>
@@ -1004,10 +1004,10 @@
         <v>79.00124456766601</v>
       </c>
       <c r="S9">
-        <v>0.02550307879376471</v>
+        <v>0.01872924498868207</v>
       </c>
       <c r="T9">
-        <v>0.02550307879376471</v>
+        <v>0.01872924498868208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.403558</v>
       </c>
       <c r="I10">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="J10">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.66696899999999</v>
       </c>
       <c r="O10">
-        <v>0.7316196070296921</v>
+        <v>0.5373208971370899</v>
       </c>
       <c r="P10">
-        <v>0.7316196070296922</v>
+        <v>0.53732089713709</v>
       </c>
       <c r="Q10">
         <v>28.01863040841133</v>
@@ -1066,10 +1066,10 @@
         <v>252.167673675702</v>
       </c>
       <c r="S10">
-        <v>0.08140443971719281</v>
+        <v>0.05978273082081637</v>
       </c>
       <c r="T10">
-        <v>0.08140443971719281</v>
+        <v>0.05978273082081639</v>
       </c>
     </row>
   </sheetData>
